--- a/Specifiche di Analisi.xlsx
+++ b/Specifiche di Analisi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF3FC4-9814-458F-A828-6D9C93FC6BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BBF80B0-BE96-4F5B-8D86-EB5DBF370B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="2484" windowWidth="17280" windowHeight="5916" xr2:uid="{AA16992E-3B61-4B28-BB49-A781013E31D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AA16992E-3B61-4B28-BB49-A781013E31D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PERCORSO EMS</t>
   </si>
   <si>
-    <t>PERCORSO CAMS</t>
-  </si>
-  <si>
     <t>PERCORSO GRIGLIA</t>
   </si>
   <si>
     <t>SCELTA GRIGLIA</t>
   </si>
   <si>
-    <t>PERCENTILE CAMS</t>
-  </si>
-  <si>
-    <t>PERCENTILE EMS</t>
-  </si>
-  <si>
     <t>MAX or MEAN</t>
   </si>
   <si>
@@ -72,6 +63,30 @@
   </si>
   <si>
     <t>PERCORSO KPI</t>
+  </si>
+  <si>
+    <t>PERCORSO POLL</t>
+  </si>
+  <si>
+    <t>PERCENTILE POLL MASSIMO</t>
+  </si>
+  <si>
+    <t>PERCENTILE POLL MINIMO</t>
+  </si>
+  <si>
+    <t>PASSO POLL</t>
+  </si>
+  <si>
+    <t>PASSO EMS</t>
+  </si>
+  <si>
+    <t>PERCENTILE EMS MASSIMO</t>
+  </si>
+  <si>
+    <t>PERCENTILE EMS MINIMO</t>
+  </si>
+  <si>
+    <t>PERCORSO POPOLAZIONE</t>
   </si>
 </sst>
 </file>
@@ -454,63 +469,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3CC433-4C29-4484-A9A2-1704EF506025}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="1" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="10" width="36.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="34.88671875" customWidth="1"/>
+    <col min="13" max="13" width="39.5546875" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="27.44140625" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
